--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -488,7 +488,7 @@
     <t>Category of the identified substance.</t>
   </si>
   <si>
-    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](https://build.fhir.org/ig/hl7au/au-fhir-base/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
+    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
   </si>
   <si>
     <t>Category of an identified substance.</t>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -488,7 +488,7 @@
     <t>Category of the identified substance.</t>
   </si>
   <si>
-    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
+    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](https://build.fhir.org/ig/hl7au/au-fhir-base/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
   </si>
   <si>
     <t>Category of an identified substance.</t>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -488,7 +488,7 @@
     <t>Category of the identified substance.</t>
   </si>
   <si>
-    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](http://hl7.org/fhir/STU3/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
+    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](https://build.fhir.org/ig/hl7au/au-fhir-base/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
   </si>
   <si>
     <t>Category of an identified substance.</t>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -488,7 +488,7 @@
     <t>Category of the identified substance.</t>
   </si>
   <si>
-    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](https://build.fhir.org/ig/hl7au/au-fhir-base/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
+    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](http://hl7.org/fhir/STU3/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
   </si>
   <si>
     <t>Category of an identified substance.</t>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -3835,7 +3835,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>216</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>42</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>250</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>42</v>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>AllergyIntolerance.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>AllergyIntolerance.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>AllergyIntolerance.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -262,7 +262,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -292,7 +292,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -314,7 +314,7 @@
     <t>AllergyIntolerance.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -337,7 +337,7 @@
     <t>recorderRelatedPerson</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/recorder-related-person]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder-related-person}
 </t>
   </si>
   <si>
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-02:A related person shall conform to Base RelatedPerson {AllergyIntolerance.extension('http://hl7.org.au/fhir/StructureDefinition/recorder-related-person').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-02:A related person shall conform to Base RelatedPerson {AllergyIntolerance.extension('http://hl7.org.au/fhir/StructureDefinition/recorder-related-person').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
   </si>
   <si>
     <t>AllergyIntolerance.modifierExtension</t>
@@ -377,7 +377,7 @@
     <t>AllergyIntolerance.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -590,7 +590,7 @@
     <t>AllergyIntolerance.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
     <t>AllergyIntolerance.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -693,7 +693,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -715,8 +715,8 @@
     <t>AllergyIntolerance.onset[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}string {[]} {[]}</t>
+    <t>dateTime
+AgePeriodRange</t>
   </si>
   <si>
     <t>When allergy or intolerance was identified</t>
@@ -734,7 +734,7 @@
     <t>AllergyIntolerance.assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
 </t>
   </si>
   <si>
@@ -783,7 +783,7 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner)
 </t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <t>AllergyIntolerance.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>AllergyIntolerance.reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1098,67 +1098,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1194,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>AllergyIntolerance.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>AllergyIntolerance.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>AllergyIntolerance.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -262,7 +262,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -292,7 +292,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -314,7 +314,7 @@
     <t>AllergyIntolerance.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -337,7 +337,7 @@
     <t>recorderRelatedPerson</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder-related-person}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/recorder-related-person]]} {[]}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>AllergyIntolerance.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -590,7 +590,7 @@
     <t>AllergyIntolerance.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
     <t>AllergyIntolerance.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -693,7 +693,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
 </t>
   </si>
   <si>
@@ -715,8 +715,8 @@
     <t>AllergyIntolerance.onset[x]</t>
   </si>
   <si>
-    <t>dateTime
-AgePeriodRange</t>
+    <t>dateTime {[]} {[]}
+Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
   </si>
   <si>
     <t>When allergy or intolerance was identified</t>
@@ -734,7 +734,7 @@
     <t>AllergyIntolerance.assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -783,7 +783,7 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
 </t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <t>AllergyIntolerance.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Annotation {[]} {[]}
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>AllergyIntolerance.reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -1098,67 +1098,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1194,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>AllergyIntolerance.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>AllergyIntolerance.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>AllergyIntolerance.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -262,7 +262,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -292,7 +292,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -314,7 +314,7 @@
     <t>AllergyIntolerance.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -337,7 +337,7 @@
     <t>recorderRelatedPerson</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/recorder-related-person]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder-related-person}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>AllergyIntolerance.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -590,7 +590,7 @@
     <t>AllergyIntolerance.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
     <t>AllergyIntolerance.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -693,7 +693,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -715,8 +715,8 @@
     <t>AllergyIntolerance.onset[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
+    <t>dateTime
+AgePeriodRange</t>
   </si>
   <si>
     <t>When allergy or intolerance was identified</t>
@@ -734,7 +734,7 @@
     <t>AllergyIntolerance.assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
 </t>
   </si>
   <si>
@@ -783,7 +783,7 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner)
 </t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <t>AllergyIntolerance.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>AllergyIntolerance.reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1098,67 +1098,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1194,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="287">
   <si>
     <t>Path</t>
   </si>
@@ -157,7 +157,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}inv-ait-0:Recorder and recorder related party shall not coexist {(extension('http://hl7.org.au/fhir/StructureDefinition/recorder-related-person').exists() and recorder.exists()).not()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}inv-ait-0:Recorder and author related party shall not coexist {(extension('http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() and recorder.exists()).not()}</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
@@ -337,14 +337,14 @@
     <t>recorderRelatedPerson</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder-related-person}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/author-related-person}
 </t>
   </si>
   <si>
     <t>Related person that recorded the sensitivity</t>
   </si>
   <si>
-    <t>Reference to related person that recorded the record and takes responsibility for its content.</t>
+    <t>Reference to related person that authored the resource and takes responsibility for its content.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -559,13 +559,13 @@
 The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Preferred SNOMED-CT coding for type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/indicator-hypersensitivity-intolerance-to-substance-1</t>
   </si>
   <si>
     <t>substance/product:@@ -587,7 +587,180 @@
     <t>AL1-3 / IAM-3</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.id</t>
+    <t>AllergyIntolerance.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+</t>
+  </si>
+  <si>
+    <t>Who the sensitivity is for</t>
+  </si>
+  <si>
+    <t>The patient who has the allergy or intolerance.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>(PID-3)</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.onset[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+AgePeriodRange</t>
+  </si>
+  <si>
+    <t>When allergy or intolerance was identified</t>
+  </si>
+  <si>
+    <t>Estimated or actual date,  date-time, or age when allergy or intolerance was identified.</t>
+  </si>
+  <si>
+    <t>effectiveTime.low</t>
+  </si>
+  <si>
+    <t>when.init</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.assertedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date record was believed accurate</t>
+  </si>
+  <si>
+    <t>The date on which the existance of the AllergyIntolerance was first asserted or acknowledged.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>IAM-20</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
+</t>
+  </si>
+  <si>
+    <t>Who recorded the sensitivity</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>who.author</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.asserter</t>
+  </si>
+  <si>
+    <t>Source
+Informant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner)
+</t>
+  </si>
+  <si>
+    <t>Source of the information about the allergy</t>
+  </si>
+  <si>
+    <t>The source of the information about the allergy that is recorded.</t>
+  </si>
+  <si>
+    <t>The recorder takes repsonsibility for the content, but can reference the source from where they got it.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role</t>
+  </si>
+  <si>
+    <t>who.source</t>
+  </si>
+  <si>
+    <t>IAM-14 (if patient) / IAM-18 (if practitioner)</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.lastOccurrence</t>
+  </si>
+  <si>
+    <t>Date(/time) of last known occurrence of a reaction</t>
+  </si>
+  <si>
+    <t>Represents the date and/or time of the last known occurrence of a reaction event.</t>
+  </si>
+  <si>
+    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional text not captured in other fields</t>
+  </si>
+  <si>
+    <t>Additional narrative about the propensity for the Adverse Reaction, not captured in other fields.</t>
+  </si>
+  <si>
+    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Reaction details</t>
+  </si>
+  <si>
+    <t>Details about each adverse reaction event linked to exposure to the identified substance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -606,7 +779,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.extension</t>
+    <t>AllergyIntolerance.reaction.extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -615,254 +788,7 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>snomedAllergyCode</t>
-  </si>
-  <si>
-    <t>Allergy or Intolerance to Substance (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/indicator-hypersensitivity-intolerance-to-substance-1</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
-</t>
-  </si>
-  <si>
-    <t>Who the sensitivity is for</t>
-  </si>
-  <si>
-    <t>The patient who has the allergy or intolerance.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>(PID-3)</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.onset[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-AgePeriodRange</t>
-  </si>
-  <si>
-    <t>When allergy or intolerance was identified</t>
-  </si>
-  <si>
-    <t>Estimated or actual date,  date-time, or age when allergy or intolerance was identified.</t>
-  </si>
-  <si>
-    <t>effectiveTime.low</t>
-  </si>
-  <si>
-    <t>when.init</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.assertedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date record was believed accurate</t>
-  </si>
-  <si>
-    <t>The date on which the existance of the AllergyIntolerance was first asserted or acknowledged.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>IAM-20</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
-</t>
-  </si>
-  <si>
-    <t>Who recorded the sensitivity</t>
-  </si>
-  <si>
-    <t>Individual who recorded the record and takes responsibility for its content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.asserter</t>
-  </si>
-  <si>
-    <t>Source
-Informant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner)
-</t>
-  </si>
-  <si>
-    <t>Source of the information about the allergy</t>
-  </si>
-  <si>
-    <t>The source of the information about the allergy that is recorded.</t>
-  </si>
-  <si>
-    <t>The recorder takes repsonsibility for the content, but can reference the source from where they got it.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role</t>
-  </si>
-  <si>
-    <t>who.source</t>
-  </si>
-  <si>
-    <t>IAM-14 (if patient) / IAM-18 (if practitioner)</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.lastOccurrence</t>
-  </si>
-  <si>
-    <t>Date(/time) of last known occurrence of a reaction</t>
-  </si>
-  <si>
-    <t>Represents the date and/or time of the last known occurrence of a reaction event.</t>
-  </si>
-  <si>
-    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Additional text not captured in other fields</t>
-  </si>
-  <si>
-    <t>Additional narrative about the propensity for the Adverse Reaction, not captured in other fields.</t>
-  </si>
-  <si>
-    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Adverse Reaction Events linked to exposure to substance</t>
-  </si>
-  <si>
-    <t>Details about each adverse reaction event linked to exposure to the identified substance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)]</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.extension</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.modifierExtension</t>
@@ -890,34 +816,13 @@
     <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identifed as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
   </si>
   <si>
-    <t>Codes defining the type of the substance (including pharmaceutical products).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-code</t>
+    <t>Preferred SNOMED-CT coding defining the type of the substance (including pharmaceutical products).</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/adverse-reaction-agent-1</t>
   </si>
   <si>
     <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].participation[typeCode=CSM].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.substance.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.substance.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.substance.coding</t>
-  </si>
-  <si>
-    <t>snomedSubstance</t>
-  </si>
-  <si>
-    <t>Substance or Agent (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/adverse-reaction-agent-1</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.substance.text</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation</t>
@@ -936,34 +841,13 @@
     <t>Manifestation can be expressed as a single word, phrase or brief description. For example: nausea, rash or no reaction. It is preferable that manifestation should be coded with a terminology, where possible. The values entered here may be used to display on an application screen as part of a list of adverse reactions, as recommended in the UK NHS CUI guidelines.  Terminologies commonly used include, but are not limited to, SNOMED CT or ICD10.</t>
   </si>
   <si>
-    <t>Clinical symptoms and/or signs that are observed or associated with an Adverse Reaction Event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>Preferred SNOMED-CT coding of clinical symptoms and/or signs that are observed or associated with an Adverse Reaction Event.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
   </si>
   <si>
     <t>AL1-5</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding</t>
-  </si>
-  <si>
-    <t>snomedManifestation</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.text</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.description</t>
@@ -1025,6 +909,9 @@
   </si>
   <si>
     <t>Coding of the route of exposure with a terminology should be used wherever possible.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
@@ -1194,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1203,7 +1090,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.65234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.78125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1226,11 +1113,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.87890625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="143.5234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="93.69921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1240,7 +1127,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.9296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2232,7 +2119,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>51</v>
@@ -3187,38 +3074,38 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3269,10 +3156,10 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3287,29 +3174,29 @@
         <v>181</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
@@ -3318,17 +3205,15 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3365,25 +3250,25 @@
         <v>42</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3392,10 +3277,10 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3403,7 +3288,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3414,7 +3299,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3423,23 +3308,19 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3475,49 +3356,49 @@
         <v>42</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>196</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>197</v>
       </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3527,29 +3408,25 @@
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3573,11 +3450,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3595,13 +3474,13 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>42</v>
@@ -3610,22 +3489,22 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>196</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3644,20 +3523,18 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3705,7 +3582,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3720,49 +3597,51 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3811,10 +3690,10 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>50</v>
@@ -3826,18 +3705,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3848,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>51</v>
@@ -3860,15 +3739,17 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -3917,13 +3798,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -3932,18 +3813,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3954,10 +3835,10 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>42</v>
@@ -3966,13 +3847,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4023,37 +3904,37 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4063,7 +3944,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
@@ -4129,7 +4010,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4144,10 +4025,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4159,14 +4040,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4175,19 +4056,19 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4237,13 +4118,13 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
@@ -4252,50 +4133,50 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4345,13 +4226,13 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
@@ -4360,7 +4241,7 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>42</v>
@@ -4371,7 +4252,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4382,7 +4263,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>51</v>
@@ -4394,16 +4275,16 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4429,13 +4310,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4453,22 +4334,22 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4479,15 +4360,15 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>41</v>
@@ -4502,15 +4383,17 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4535,13 +4418,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4559,10 +4442,10 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>41</v>
@@ -4571,25 +4454,25 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4608,15 +4491,17 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4665,7 +4550,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4680,7 +4565,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4691,18 +4576,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4714,17 +4599,15 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4773,13 +4656,13 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
@@ -4788,50 +4671,50 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4857,13 +4740,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -4881,13 +4764,13 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
@@ -4896,7 +4779,7 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>42</v>
@@ -4905,9 +4788,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4921,7 +4804,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>42</v>
@@ -4933,13 +4816,13 @@
         <v>166</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4965,13 +4848,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -4989,7 +4872,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5004,7 +4887,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -5015,7 +4898,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5026,7 +4909,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5038,15 +4921,17 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5095,13 +4980,13 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
@@ -5110,1641 +4995,17 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AB38" s="2"/>
-      <c r="AC38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X39" s="2"/>
-      <c r="Y39" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AB44" s="2"/>
-      <c r="AC44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X45" s="2"/>
-      <c r="Y45" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL51" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL51">
+  <autoFilter ref="A1:AL36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6754,7 +5015,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-02:A related person shall conform to Base RelatedPerson {AllergyIntolerance.extension('http://hl7.org.au/fhir/StructureDefinition/recorder-related-person').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-02:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
   </si>
   <si>
     <t>AllergyIntolerance.modifierExtension</t>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="288">
   <si>
     <t>Path</t>
   </si>
@@ -602,6 +602,10 @@
   </si>
   <si>
     <t>The patient who has the allergy or intolerance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-dh-ait-01:The patient shall at least have a reference or an identifier {reference.exists() or identifier.exists()}
+</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
@@ -3168,21 +3172,21 @@
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3205,13 +3209,13 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3262,7 +3266,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3277,10 +3281,10 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3288,7 +3292,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3311,13 +3315,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3368,7 +3372,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3383,22 +3387,22 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3417,13 +3421,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3474,7 +3478,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3489,10 +3493,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3500,11 +3504,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3523,16 +3527,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3582,7 +3586,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3597,18 +3601,18 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3631,16 +3635,16 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3690,7 +3694,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3705,7 +3709,7 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>42</v>
@@ -3716,7 +3720,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3739,16 +3743,16 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3798,7 +3802,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3813,7 +3817,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -3824,7 +3828,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3847,13 +3851,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3904,7 +3908,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3916,10 +3920,10 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -3930,7 +3934,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3953,13 +3957,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4010,7 +4014,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4025,7 +4029,7 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
@@ -4036,7 +4040,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4062,10 +4066,10 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>111</v>
@@ -4118,7 +4122,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4133,7 +4137,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -4144,11 +4148,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4173,7 +4177,7 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>111</v>
@@ -4226,7 +4230,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4252,7 +4256,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4278,13 +4282,13 @@
         <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4313,10 +4317,10 @@
         <v>170</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4334,7 +4338,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4349,7 +4353,7 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4360,11 +4364,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4386,13 +4390,13 @@
         <v>166</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4421,10 +4425,10 @@
         <v>170</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4442,7 +4446,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>50</v>
@@ -4463,16 +4467,16 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4491,16 +4495,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4550,7 +4554,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4565,7 +4569,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4576,7 +4580,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4599,13 +4603,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4656,7 +4660,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4671,18 +4675,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4708,13 +4712,13 @@
         <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4743,10 +4747,10 @@
         <v>123</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -4764,7 +4768,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4790,7 +4794,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4816,13 +4820,13 @@
         <v>166</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4848,13 +4852,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -4872,7 +4876,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4887,7 +4891,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -4898,7 +4902,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4921,16 +4925,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4980,7 +4984,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4995,7 +4999,7 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="287">
   <si>
     <t>Path</t>
   </si>
@@ -157,7 +157,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}inv-ait-0:Recorder and author related party shall not coexist {(extension('http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() and recorder.exists()).not()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}inv-ait-0:Recorder and author related party shall not coexist {(extension('http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() and recorder.exists()).not()}inv-dh-ait-03:If present, a recorder related person shall at least have a reference, an identifier or a display {extension('http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() implies extension.valueReference.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-ait-01:The patient shall at least have a reference or an identifier with at least a system and a value {patient.reference.exists() or patient.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-ait-02:If present, a recorder shall at least have a reference, an identifier or a display {recorder.exists() implies recorder.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-02:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-04:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
   </si>
   <si>
     <t>AllergyIntolerance.modifierExtension</t>
@@ -602,10 +602,6 @@
   </si>
   <si>
     <t>The patient who has the allergy or intolerance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-dh-ait-01:The patient shall at least have a reference or an identifier {reference.exists() or identifier.exists()}
-</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
@@ -2123,7 +2119,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>51</v>
@@ -3172,21 +3168,21 @@
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3209,13 +3205,13 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3266,7 +3262,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3281,10 +3277,10 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3292,7 +3288,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3315,13 +3311,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3372,7 +3368,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3387,22 +3383,22 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3421,13 +3417,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3478,7 +3474,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3493,10 +3489,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3504,11 +3500,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3527,16 +3523,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3586,7 +3582,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3601,18 +3597,18 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3635,16 +3631,16 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3694,7 +3690,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3709,7 +3705,7 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>42</v>
@@ -3720,7 +3716,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3743,16 +3739,16 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3802,7 +3798,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3817,7 +3813,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -3828,7 +3824,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3851,13 +3847,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3908,7 +3904,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3920,10 +3916,10 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -3934,7 +3930,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3957,13 +3953,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4014,22 +4010,22 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
@@ -4040,7 +4036,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4066,10 +4062,10 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>111</v>
@@ -4122,7 +4118,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4137,7 +4133,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -4148,11 +4144,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4177,7 +4173,7 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>111</v>
@@ -4230,7 +4226,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4256,7 +4252,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4282,13 +4278,13 @@
         <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4317,43 +4313,43 @@
         <v>170</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4364,11 +4360,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4390,13 +4386,13 @@
         <v>166</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4425,11 +4421,11 @@
         <v>170</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4446,7 +4442,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>50</v>
@@ -4467,16 +4463,16 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4495,16 +4491,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4554,7 +4550,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4569,7 +4565,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4580,7 +4576,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4603,13 +4599,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4660,7 +4656,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4675,18 +4671,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4712,13 +4708,13 @@
         <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4747,11 +4743,11 @@
         <v>123</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4768,7 +4764,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4794,7 +4790,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4820,13 +4816,13 @@
         <v>166</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4852,46 +4848,46 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -4902,7 +4898,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4925,16 +4921,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4984,7 +4980,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4999,7 +4995,7 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>

--- a/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
+++ b/output/SharedHealthSummary/allergyintolerance-summary-1.xlsx
@@ -334,14 +334,14 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>recorderRelatedPerson</t>
+    <t>authorRelatedPerson</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/author-related-person}
 </t>
   </si>
   <si>
-    <t>Related person that recorded the sensitivity</t>
+    <t>Related person that authored the resource</t>
   </si>
   <si>
     <t>Reference to related person that authored the resource and takes responsibility for its content.</t>
@@ -1091,7 +1091,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.07421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
